--- a/Tracker/DSF-PT08-P2 Discussion Groups(sudents copy).xlsx
+++ b/Tracker/DSF-PT08-P2 Discussion Groups(sudents copy).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Phase_2_Project_Group_1\Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83BC411-1C10-48BB-A6A8-CA8812EA5B53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E831586-DF5D-4433-841F-179FC532BA22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7635" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phase 2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
   <si>
     <t>DSF-PT08 P2 DISCUSSION GROUPS</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Emailto:</t>
+  </si>
+  <si>
+    <t>git@github.com:gkipkirui1/DSF_PT08P2_Phase_2_Project_Grp_1_Final.git</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -726,23 +729,11 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,6 +753,19 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -995,18 +999,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -2292,19 +2296,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46.86328125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>89</v>
       </c>
@@ -2315,518 +2320,521 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="73"/>
       <c r="D2" s="48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="73"/>
       <c r="D3" s="50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="73"/>
       <c r="D4" s="52" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="64"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="73"/>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="64"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="73"/>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="64"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="73"/>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="64"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="73"/>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="64"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="73"/>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="64"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="73"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="64"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="73"/>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="64"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="73"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="64"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="73"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="64"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="73"/>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="64"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="73"/>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="64"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="73"/>
+    </row>
+    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="64"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="73"/>
+    </row>
+    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="64"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="73"/>
+    </row>
+    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="73"/>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="64"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="73"/>
+    </row>
+    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A21" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="64"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="73"/>
+    </row>
+    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A22" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="64"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="73"/>
+    </row>
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A23" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="73"/>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="64"/>
+      <c r="B24" s="73"/>
     </row>
     <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A25" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="73"/>
     </row>
     <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A26" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="64"/>
+      <c r="B26" s="73"/>
     </row>
     <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A27" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="73"/>
     </row>
     <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A28" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="73"/>
     </row>
     <row r="29" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A29" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="73"/>
     </row>
     <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="64"/>
+      <c r="B30" s="73"/>
     </row>
     <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="73"/>
     </row>
     <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="73"/>
     </row>
     <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="64"/>
+      <c r="B33" s="73"/>
     </row>
     <row r="34" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="64"/>
+      <c r="B34" s="73"/>
     </row>
     <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="64"/>
+      <c r="B35" s="73"/>
     </row>
     <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="64"/>
+      <c r="B36" s="73"/>
     </row>
     <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="73"/>
     </row>
     <row r="38" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A38" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="64"/>
+      <c r="B38" s="73"/>
     </row>
     <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A39" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="73"/>
     </row>
     <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A40" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="64"/>
+      <c r="B40" s="73"/>
     </row>
     <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A41" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="64"/>
+      <c r="B41" s="73"/>
     </row>
     <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A42" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="64"/>
+      <c r="B42" s="73"/>
     </row>
     <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A43" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="64"/>
+      <c r="B43" s="73"/>
     </row>
     <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A44" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="64"/>
+      <c r="B44" s="73"/>
     </row>
     <row r="45" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A45" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="64"/>
+      <c r="B45" s="73"/>
     </row>
     <row r="46" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A46" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="64"/>
+      <c r="B46" s="73"/>
     </row>
     <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="64"/>
+      <c r="B47" s="73"/>
     </row>
     <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="64"/>
+      <c r="B48" s="73"/>
     </row>
     <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A49" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="64"/>
+      <c r="B49" s="73"/>
     </row>
     <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="64"/>
+      <c r="B50" s="73"/>
     </row>
     <row r="51" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A51" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="64"/>
+      <c r="B51" s="73"/>
     </row>
     <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="64"/>
+      <c r="B52" s="73"/>
     </row>
     <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A53" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="64"/>
+      <c r="B53" s="73"/>
     </row>
     <row r="54" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A54" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="64"/>
+      <c r="B54" s="73"/>
     </row>
     <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A55" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="64"/>
+      <c r="B55" s="73"/>
     </row>
     <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A56" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="64"/>
+      <c r="B56" s="73"/>
     </row>
     <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A57" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="64"/>
+      <c r="B57" s="73"/>
     </row>
     <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A58" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="64"/>
+      <c r="B58" s="73"/>
     </row>
     <row r="59" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A59" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="64"/>
+      <c r="B59" s="73"/>
     </row>
     <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A60" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="64"/>
+      <c r="B60" s="73"/>
     </row>
     <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A61" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="64"/>
+      <c r="B61" s="73"/>
     </row>
     <row r="62" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A62" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="64"/>
+      <c r="B62" s="73"/>
     </row>
     <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="64"/>
+      <c r="B63" s="73"/>
     </row>
     <row r="64" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A64" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="64"/>
+      <c r="B64" s="73"/>
     </row>
     <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="64"/>
+      <c r="B65" s="73"/>
     </row>
     <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A66" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="64"/>
+      <c r="B66" s="73"/>
     </row>
     <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A67" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="64"/>
+      <c r="B67" s="73"/>
     </row>
     <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="64"/>
+      <c r="B68" s="73"/>
     </row>
     <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A69" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="64"/>
+      <c r="B69" s="73"/>
     </row>
     <row r="70" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A70" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="64"/>
+      <c r="B70" s="73"/>
     </row>
     <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A71" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="64"/>
+      <c r="B71" s="73"/>
     </row>
     <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A72" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="64"/>
+      <c r="B72" s="73"/>
     </row>
     <row r="73" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A73" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="64"/>
+      <c r="B73" s="73"/>
     </row>
     <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A74" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="64"/>
+      <c r="B74" s="73"/>
     </row>
     <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A75" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B75" s="64"/>
+      <c r="B75" s="73"/>
     </row>
     <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A76" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="64"/>
+      <c r="B76" s="73"/>
     </row>
     <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A77" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="64"/>
+      <c r="B77" s="73"/>
     </row>
     <row r="78" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A78" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="64"/>
+      <c r="B78" s="73"/>
     </row>
     <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="64"/>
+      <c r="B79" s="73"/>
     </row>
     <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="64"/>
+      <c r="B80" s="73"/>
     </row>
     <row r="81" spans="1:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A81" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="64"/>
+      <c r="B81" s="73"/>
     </row>
     <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A82" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="64"/>
+      <c r="B82" s="73"/>
     </row>
     <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B83" s="64"/>
+      <c r="B83" s="73"/>
     </row>
     <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B84" s="64"/>
+      <c r="B84" s="73"/>
     </row>
     <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A85" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="64"/>
+      <c r="B85" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2852,220 +2860,220 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.265625" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.46484375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.06640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.46484375" style="67" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.19921875" style="67" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.19921875" style="67" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="12.59765625" style="67"/>
+    <col min="1" max="1" width="10.265625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.46484375" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.06640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.46484375" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.19921875" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" style="64" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.19921875" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="12.59765625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="75"/>
+      <c r="E1" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="75"/>
+      <c r="G1" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="65" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="65" t="s">
+      <c r="J1" s="75"/>
+      <c r="K1" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="66"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
+      <c r="N1" s="75"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="65" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="69" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="69" t="s">
+      <c r="J3" s="75"/>
+      <c r="K3" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="69" t="s">
+      <c r="L3" s="75"/>
+      <c r="M3" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="66"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
+      <c r="N3" s="75"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="68" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="69" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="73" t="s">
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="69" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="70" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="71" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="71" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="71" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="71" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="71" t="s">
         <v>81</v>
       </c>
     </row>
